--- a/static/testcase/测试用例模板.xlsx
+++ b/static/testcase/测试用例模板.xlsx
@@ -1,172 +1,283 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProject\Fastapi_tortoise\static\testcase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A0EB83-BD0A-453A-A47C-41FD28ED8844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="795" windowWidth="21600" windowHeight="11385" xr2:uid="{8D2FE0B6-ED89-4DC3-9ADF-AA1CE5FD682C}"/>
+    <workbookView windowWidth="28800" windowHeight="12660" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="登陆1" sheetId="1" r:id="rId1"/>
+    <sheet name="登陆2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例子模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否执行（是=1，否=0）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接口地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请求方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请求头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请求参数类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>请求参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预期返回code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预期结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预期返回数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>data保存redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>返回结果保存redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用例编写者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登录成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登录成功用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录失败用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
   </si>
   <si>
     <t>{
   "username": "tang",
   "password": "123456"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败</t>
+  </si>
+  <si>
+    <t>登录失败用例</t>
   </si>
   <si>
     <t>{
   "username": "tang",
   "password": "1234567"
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +286,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,9 +485,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -205,17 +744,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -264,7 +847,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -297,26 +880,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -349,23 +915,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,29 +1056,161 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64755E3D-B6E9-44FB-BBDA-37492BF7BA33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="10" max="10" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="150" spans="1:12">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" ht="165" spans="1:12">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="A1" sqref="A1:R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +1266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="2" ht="150" spans="1:12">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -593,64 +1274,64 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="L2">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="3" ht="165" spans="1:12">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="L3">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/static/testcase/测试用例模板.xlsx
+++ b/static/testcase/测试用例模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProject\Fastapi_tortoise\static\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89346EEA-DE77-46F9-9D66-C448BE1F8388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96C2FDE-D2BC-4AED-AF8E-6A5CF0C23FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="960" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="登陆1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,76 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>BFChainer</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{38223874-9C50-4A41-931D-3D2EF5DAC057}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>BFChainer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1: True, 0: False</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>BFChainer</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{5B2038F5-1A18-46CA-ABBB-C1685AC4AB25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>BFChainer:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1: True, 0: False</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>用例编号</t>
   </si>
@@ -81,9 +149,6 @@
   </si>
   <si>
     <t>登录</t>
-  </si>
-  <si>
-    <t>/login</t>
   </si>
   <si>
     <t>{
@@ -108,17 +173,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>JSON</t>
+    <t>post</t>
+  </si>
+  <si>
+    <t>thb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +219,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -176,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +273,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,11 +552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -541,29 +630,32 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="b">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="L2">
         <v>200</v>
       </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="128.25" x14ac:dyDescent="0.2">
@@ -571,65 +663,66 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="b">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3">
         <v>200</v>
       </c>
-      <c r="O3" t="b">
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" t="b">
+      <c r="P3">
         <v>0</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{77444651-F89E-4F36-B6A3-DDD0922318F1}">
-      <formula1>"JSON,QUERY,PATH"</formula1>
+      <formula1>"body,query,path"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:P1048576" xr:uid="{AE80F032-3C78-4BEC-AD51-AC0E389EAE7D}">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576 O1:P1048576" xr:uid="{AE80F032-3C78-4BEC-AD51-AC0E389EAE7D}">
+      <formula1>"1,0"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{7C06EDA4-A28E-4C94-89CC-38FC54D7B1C4}">
-      <formula1>"POST,GET,PUT,DELETE,UPDATE,OPTIONS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{617CD5C6-3E6D-4EB4-A86D-237BA840B291}">
-      <formula1>"TRUE,FALSE"</formula1>
+      <formula1>"post,get,put,delete,update,options"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -692,7 +785,7 @@
     </row>
     <row r="2" spans="1:18" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -703,82 +796,89 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="b">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="L2">
         <v>200</v>
       </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="b">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>20</v>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3">
         <v>200</v>
       </c>
-      <c r="O3" t="b">
+      <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" t="b">
+      <c r="P3">
         <v>0</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{12120EF6-C6A8-458E-930F-B0A15EC5A7F0}">
-      <formula1>"POST,GET,PUT,DELETE,UPDATE,OPTIONS"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576 O1:P1048576" xr:uid="{A7D3BBAE-08ED-4656-A985-EE9055F802E7}">
+      <formula1>"1,0"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{3C335BB1-9B0D-4A44-9B9F-A3E4B99631E2}">
-      <formula1>"JSON,QUERY,PATH"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{1601D5B8-3BE2-4B82-A897-B96907FA782D}">
+      <formula1>"post,get,put,delete,update,options"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576 O1:P1048576" xr:uid="{8E360200-BA2E-461B-B728-214D14EA1523}">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{5DBE8A23-DCD8-4A97-A278-87C42AD886FE}">
+      <formula1>"body,query,path"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>